--- a/402/bigdatacluster.xlsx
+++ b/402/bigdatacluster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docker register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +265,10 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>habor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -368,6 +368,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -651,22 +652,23 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.08203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.9140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.4140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.58203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.08203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.58203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -691,8 +693,8 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
+      <c r="H1" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>46</v>
@@ -701,10 +703,10 @@
         <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>45</v>
@@ -803,10 +805,10 @@
         <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>45</v>
@@ -839,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -909,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>45</v>
@@ -944,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>44</v>
@@ -980,13 +982,13 @@
         <v>12</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1015,13 +1017,13 @@
         <v>47</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1047,19 +1049,19 @@
         <v>15</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
